--- a/Models/Version 4/ARIMA/Scoring.xlsx
+++ b/Models/Version 4/ARIMA/Scoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\DS-Assignment\Models\Version 4\ARIMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DS-Assignment\Models\Version 4\ARIMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D733E90F-269B-4FC1-AA2C-12825B613FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73697A18-DC3A-4BD3-8923-64CCF5E3584E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5469" yWindow="5657" windowWidth="23982" windowHeight="13594" xr2:uid="{7FC7CB33-8B48-4DD0-8BF3-92EFBFF0FD63}"/>
+    <workbookView xWindow="4140" yWindow="900" windowWidth="17280" windowHeight="8964" xr2:uid="{7FC7CB33-8B48-4DD0-8BF3-92EFBFF0FD63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Country</t>
   </si>
@@ -57,10 +57,25 @@
     <t>MAE score</t>
   </si>
   <si>
-    <t>ARIMA (1, 0, 3)</t>
-  </si>
-  <si>
     <t>RMSE score</t>
+  </si>
+  <si>
+    <t>ARIMA (2 , 1 , 0)</t>
+  </si>
+  <si>
+    <t>ARIMA(1 , 1 , 1)</t>
+  </si>
+  <si>
+    <t>ARIMA(2 , 0 , 0)</t>
+  </si>
+  <si>
+    <t>ARIMA (1 , 0 , 3)</t>
+  </si>
+  <si>
+    <t>ARIMA(1 , 1 , 3)</t>
+  </si>
+  <si>
+    <t>ARIMA(2 , 1 , 1)</t>
   </si>
 </sst>
 </file>
@@ -458,18 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -494,33 +497,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -542,6 +518,45 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,252 +873,364 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C95BF3-2F01-4B04-AEFD-E15CCC535AC0}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.3046875" customWidth="1"/>
-    <col min="3" max="3" width="7.84375" customWidth="1"/>
-    <col min="4" max="4" width="6.53515625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="54"/>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="48">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="56"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="35">
         <v>60</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="36">
         <v>115</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="36">
         <v>170</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="36">
         <v>225</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="37">
         <v>280</v>
       </c>
-      <c r="H2" s="48">
+      <c r="H2" s="35">
         <v>60</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="36">
         <v>115</v>
       </c>
-      <c r="J2" s="49">
+      <c r="J2" s="36">
         <v>170</v>
       </c>
-      <c r="K2" s="49">
+      <c r="K2" s="36">
         <v>225</v>
       </c>
-      <c r="L2" s="50">
+      <c r="L2" s="37">
         <v>280</v>
       </c>
-      <c r="M2" s="48">
+      <c r="M2" s="35">
         <v>60</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="36">
         <v>115</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="36">
         <v>170</v>
       </c>
-      <c r="P2" s="49">
+      <c r="P2" s="36">
         <v>225</v>
       </c>
-      <c r="Q2" s="50">
+      <c r="Q2" s="37">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7">
         <v>0.81299999999999994</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="9">
         <v>0.96899999999999997</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="9">
         <v>0.88300000000000001</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="9">
         <v>0.95599999999999996</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="11">
         <v>0.84599999999999997</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="15">
         <v>1769.318</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="17">
         <v>1247.2159999999999</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="17">
         <v>1439.877</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="17">
         <v>1574.2149999999999</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="19">
         <v>1082.329</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="23">
         <v>2496.0909999999999</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="25">
         <v>1596.056</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="25">
         <v>2371.998</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="25">
         <v>2303.5050000000001</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="27">
         <v>1487.4880000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="56"/>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.999</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0.999</v>
+      </c>
+      <c r="H4" s="38">
+        <v>657.077</v>
+      </c>
+      <c r="I4" s="21">
+        <v>376.91199999999998</v>
+      </c>
+      <c r="J4" s="21">
+        <v>666.28899999999999</v>
+      </c>
+      <c r="K4" s="21">
+        <v>524.21699999999998</v>
+      </c>
+      <c r="L4" s="39">
+        <v>1718.81</v>
+      </c>
+      <c r="M4" s="42">
+        <v>844.49</v>
+      </c>
+      <c r="N4" s="29">
+        <v>550.71500000000003</v>
+      </c>
+      <c r="O4" s="29">
+        <v>1258.82</v>
+      </c>
+      <c r="P4" s="29">
+        <v>843.58900000000006</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>2267.08</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="32"/>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.997</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18">
+        <v>3922.1509999999998</v>
+      </c>
+      <c r="K5" s="18">
+        <v>989.346</v>
+      </c>
+      <c r="L5" s="20">
+        <v>702.61099999999999</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26">
+        <v>5838.3540000000003</v>
+      </c>
+      <c r="P5" s="26">
+        <v>1408.211</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>909.423</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="56"/>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="13">
+        <v>0.997</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="21">
+        <v>25.175000000000001</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21">
+        <v>42.673999999999999</v>
+      </c>
+      <c r="L6" s="39">
+        <v>123.724</v>
+      </c>
+      <c r="M6" s="42"/>
+      <c r="N6" s="29">
+        <v>37.018999999999998</v>
+      </c>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29">
+        <v>67.826999999999998</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>172.84299999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="32"/>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="20">
+        <v>9.01</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="28">
+        <v>11.31</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="58"/>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G8" s="34">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="H8" s="40">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="J8" s="22">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1.486</v>
+      </c>
+      <c r="L8" s="41">
+        <v>5.5149999999999997</v>
+      </c>
+      <c r="M8" s="44">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="N8" s="30">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="O8" s="30">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="P8" s="30">
+        <v>2.2069999999999999</v>
+      </c>
+      <c r="Q8" s="45">
+        <v>10.781000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
